--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="991">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -2918,7 +2918,7 @@
     <t>88306798</t>
   </si>
   <si>
-    <t>AV. VEREADOR JOSÉ MEDEIROS VIEIRA, 500</t>
+    <t>AVENIDA JOSÉ MEDEIROS VIEIRA, 500</t>
   </si>
   <si>
     <t>SC</t>
@@ -2973,6 +2973,18 @@
   </si>
   <si>
     <t>AVENIDA VIEIRA SOUTO, 250 - AP 601</t>
+  </si>
+  <si>
+    <t>2511 - 1807 PARTICIPAÇÕES LTDA</t>
+  </si>
+  <si>
+    <t>36449829000113</t>
+  </si>
+  <si>
+    <t>01453030</t>
+  </si>
+  <si>
+    <t>RUA JACURICI, AP 24 - TORRE B</t>
   </si>
 </sst>
 </file>
@@ -3259,7 +3271,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8773,6 +8785,23 @@
         <v>9</v>
       </c>
     </row>
+    <row ht="12.75" customHeight="1" r="325">
+      <c r="A325" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup orientation="portrait" pageOrder="downThenOver" paperSize="9" fitToWidth="0" fitToHeight="0"/>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="994">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -2981,10 +2981,19 @@
     <t>36449829000113</t>
   </si>
   <si>
-    <t>01453030</t>
-  </si>
-  <si>
-    <t>RUA JACURICI, AP 24 - TORRE B</t>
+    <t>01453011</t>
+  </si>
+  <si>
+    <t>RUA DR MÁRIO FERRAZ, 492 - AP24, TORRE B</t>
+  </si>
+  <si>
+    <t>2512 - ROBERTO KLABIN MARTINS XAVIER</t>
+  </si>
+  <si>
+    <t>15318108881</t>
+  </si>
+  <si>
+    <t>RUA JORGE COELHO, 147</t>
   </si>
 </sst>
 </file>
@@ -3271,7 +3280,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8802,6 +8811,23 @@
         <v>140</v>
       </c>
     </row>
+    <row ht="12.75" customHeight="1" r="326">
+      <c r="A326" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup orientation="portrait" pageOrder="downThenOver" paperSize="9" fitToWidth="0" fitToHeight="0"/>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -2984,7 +2984,7 @@
     <t>01453011</t>
   </si>
   <si>
-    <t>RUA DR MÁRIO FERRAZ, 492 - AP24, TORRE B</t>
+    <t>RUA DR MÁRIO FERRAZ 492, AP 24 - TORRE A</t>
   </si>
   <si>
     <t>2512 - ROBERTO KLABIN MARTINS XAVIER</t>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="998">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -2994,6 +2994,18 @@
   </si>
   <si>
     <t>RUA JORGE COELHO, 147</t>
+  </si>
+  <si>
+    <t>2513 - KAENA PARTICIPAÇÕES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2346854600017</t>
+  </si>
+  <si>
+    <t>01455070</t>
+  </si>
+  <si>
+    <t>RUA ANGELINA MAFFEI VITA, 314 - AP 81</t>
   </si>
 </sst>
 </file>
@@ -3280,7 +3292,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8828,6 +8840,23 @@
         <v>140</v>
       </c>
     </row>
+    <row ht="12.75" customHeight="1" r="327">
+      <c r="A327" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup orientation="portrait" pageOrder="downThenOver" paperSize="9" fitToWidth="0" fitToHeight="0"/>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -2996,16 +2996,19 @@
     <t>RUA JORGE COELHO, 147</t>
   </si>
   <si>
-    <t>2513 - KAENA PARTICIPAÇÕES LTDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2346854600017</t>
+    <t>2513 - KAENA PARTICIPAÇÕES LTDA - II</t>
   </si>
   <si>
     <t>01455070</t>
   </si>
   <si>
     <t>RUA ANGELINA MAFFEI VITA, 314 - AP 81</t>
+  </si>
+  <si>
+    <t>231601 - MARCO FREIRE (ÁREA EXTERNA)</t>
+  </si>
+  <si>
+    <t>AVENIDA LÚCIO COSTA, 4260, APTO 602/BL03</t>
   </si>
 </sst>
 </file>
@@ -3292,7 +3295,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E327"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8845,16 +8848,33 @@
         <v>994</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="328">
+      <c r="A328" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -3009,6 +3009,15 @@
   </si>
   <si>
     <t>AVENIDA LÚCIO COSTA, 4260, APTO 602/BL03</t>
+  </si>
+  <si>
+    <t>2515 - MARCO FREIRE (ÁREA EXTERNA)</t>
+  </si>
+  <si>
+    <t>051.359.547-32</t>
+  </si>
+  <si>
+    <t>AVENIDA LÚCIO COSTA 4260, APTO 602/BL03</t>
   </si>
 </sst>
 </file>
@@ -3295,7 +3304,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8877,6 +8886,23 @@
         <v>9</v>
       </c>
     </row>
+    <row ht="12.75" customHeight="1" r="329">
+      <c r="A329" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup orientation="portrait" pageOrder="downThenOver" paperSize="9" fitToWidth="0" fitToHeight="0"/>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -3018,6 +3018,15 @@
   </si>
   <si>
     <t>AVENIDA LÚCIO COSTA 4260, APTO 602/BL03</t>
+  </si>
+  <si>
+    <t>2514 - FELIPE HESS BORGES (SANTA BRANCA)</t>
+  </si>
+  <si>
+    <t>12380000</t>
+  </si>
+  <si>
+    <t>ESTR. PART. FRANCISCO DE ASSIS, 1224</t>
   </si>
 </sst>
 </file>
@@ -3304,7 +3313,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8903,6 +8912,23 @@
         <v>9</v>
       </c>
     </row>
+    <row ht="12.75" customHeight="1" r="330">
+      <c r="A330" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup orientation="portrait" pageOrder="downThenOver" paperSize="9" fitToWidth="0" fitToHeight="0"/>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -2900,7 +2900,7 @@
     <t>RUA SERIDÓ, 106 - APART. 211D</t>
   </si>
   <si>
-    <t>2504 - MARIA ANGÉLICA A. MONTEIRO DA COSTA</t>
+    <t>2504 - MARIA ANGÉLICA A. M. DA COSTA</t>
   </si>
   <si>
     <t>73451100797</t>
@@ -3020,7 +3020,7 @@
     <t>AVENIDA LÚCIO COSTA 4260, APTO 602/BL03</t>
   </si>
   <si>
-    <t>2514 - FELIPE HESS BORGES (SANTA BRANCA)</t>
+    <t>2514 - FELIPE HESS BORGES</t>
   </si>
   <si>
     <t>12380000</t>

--- a/Empreendimentos.xlsx
+++ b/Empreendimentos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="1007">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -3027,6 +3027,12 @@
   </si>
   <si>
     <t>ESTR. PART. FRANCISCO DE ASSIS, 1224</t>
+  </si>
+  <si>
+    <t>2516 - JOSÉ CARLOS MORAES ABREU FILHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04351672862</t>
   </si>
 </sst>
 </file>
@@ -3313,7 +3319,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8929,6 +8935,23 @@
         <v>140</v>
       </c>
     </row>
+    <row ht="12.75" customHeight="1" r="331">
+      <c r="A331" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup orientation="portrait" pageOrder="downThenOver" paperSize="9" fitToWidth="0" fitToHeight="0"/>
